--- a/FP1-G47-350-1201/FP1-log-G47-6977-350-1201.xlsx
+++ b/FP1-G47-350-1201/FP1-log-G47-6977-350-1201.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jin-Desktop\Documents\Projects\ensc350-finalproject\ExU\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0416B0-5F4E-4A61-9329-618CCF03ACD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106C18E3-7B75-4E3D-9E4C-C27541FC033D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
   <si>
     <t>last  4 digits</t>
   </si>
@@ -254,6 +254,12 @@
   </si>
   <si>
     <t>Submitted first attempt to Canvas. Just in case</t>
+  </si>
+  <si>
+    <t>Submitted second attempt to Canvas.</t>
+  </si>
+  <si>
+    <t>Reviewed report. Fixed spelling, formatting and grammer issues. DONE</t>
   </si>
 </sst>
 </file>
@@ -790,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD00F48-C874-4451-94D3-83F5136CE4E1}">
-  <dimension ref="A1:G772"/>
+  <dimension ref="A1:G776"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1918,17 +1924,73 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="12"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="19"/>
-      <c r="G68" s="12"/>
-    </row>
-    <row r="69" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="11">
+        <v>6977</v>
+      </c>
+      <c r="C68" s="9">
+        <v>43926</v>
+      </c>
+      <c r="D68" s="16">
+        <v>0.97152777777777777</v>
+      </c>
+      <c r="E68" s="18">
+        <v>0.98263888888888884</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="11">
+        <v>6977</v>
+      </c>
+      <c r="C69" s="9">
+        <v>43926</v>
+      </c>
+      <c r="D69" s="16">
+        <v>0.98263888888888884</v>
+      </c>
+      <c r="E69" s="18">
+        <v>0.98402777777777783</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="11">
+        <v>6977</v>
+      </c>
+      <c r="C70" s="9">
+        <v>43926</v>
+      </c>
+      <c r="D70" s="16"/>
+      <c r="E70" s="18"/>
+      <c r="G70" s="11"/>
+    </row>
+    <row r="71" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="11">
+        <v>6977</v>
+      </c>
+      <c r="C71" s="9">
+        <v>43926</v>
+      </c>
+      <c r="D71" s="16"/>
+      <c r="E71" s="18"/>
+      <c r="G71" s="11"/>
+    </row>
+    <row r="72" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="12">
+        <v>6977</v>
+      </c>
+      <c r="C72" s="10">
+        <v>43926</v>
+      </c>
+      <c r="D72" s="17"/>
+      <c r="E72" s="19"/>
+      <c r="G72" s="12"/>
+    </row>
     <row r="73" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="74" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="75" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2629,6 +2691,10 @@
     <row r="770" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="771" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="772" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:D1"/>

--- a/FP1-G47-350-1201/FP1-log-G47-6977-350-1201.xlsx
+++ b/FP1-G47-350-1201/FP1-log-G47-6977-350-1201.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jin-Desktop\Documents\Projects\ensc350-finalproject\ExU\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106C18E3-7B75-4E3D-9E4C-C27541FC033D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367153A1-E90C-43CE-BDB6-626BEF7565B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
   <si>
     <t>last  4 digits</t>
   </si>
@@ -256,10 +256,19 @@
     <t>Submitted first attempt to Canvas. Just in case</t>
   </si>
   <si>
-    <t>Submitted second attempt to Canvas.</t>
-  </si>
-  <si>
     <t>Reviewed report. Fixed spelling, formatting and grammer issues. DONE</t>
+  </si>
+  <si>
+    <t>Reviewed report together with team member for possible issues.</t>
+  </si>
+  <si>
+    <t>Submitted second attempt to Canvas. DONE</t>
+  </si>
+  <si>
+    <t>Revised report together with team member for clarity</t>
+  </si>
+  <si>
+    <t>Last attempt of submission to Canvas. DONE</t>
   </si>
 </sst>
 </file>
@@ -799,7 +808,7 @@
   <dimension ref="A1:G776"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,7 +1947,7 @@
         <v>0.98263888888888884</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1955,7 +1964,7 @@
         <v>0.98402777777777783</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1965,9 +1974,15 @@
       <c r="C70" s="9">
         <v>43926</v>
       </c>
-      <c r="D70" s="16"/>
-      <c r="E70" s="18"/>
-      <c r="G70" s="11"/>
+      <c r="D70" s="16">
+        <v>0.98402777777777783</v>
+      </c>
+      <c r="E70" s="18">
+        <v>0.99097222222222225</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="71" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="11">
@@ -1976,9 +1991,15 @@
       <c r="C71" s="9">
         <v>43926</v>
       </c>
-      <c r="D71" s="16"/>
-      <c r="E71" s="18"/>
-      <c r="G71" s="11"/>
+      <c r="D71" s="16">
+        <v>0.99097222222222225</v>
+      </c>
+      <c r="E71" s="18">
+        <v>0.99652777777777779</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="72" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="12">
@@ -1987,9 +2008,15 @@
       <c r="C72" s="10">
         <v>43926</v>
       </c>
-      <c r="D72" s="17"/>
-      <c r="E72" s="19"/>
-      <c r="G72" s="12"/>
+      <c r="D72" s="17">
+        <v>0.99652777777777779</v>
+      </c>
+      <c r="E72" s="19">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="73" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="74" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
